--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf16-Fgfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf16-Fgfr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Fgf16</t>
+  </si>
+  <si>
+    <t>Fgfr2</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Fgf16</t>
-  </si>
-  <si>
-    <t>Fgfr2</t>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G2">
+        <v>0.7297526666666666</v>
+      </c>
+      <c r="H2">
+        <v>2.189258</v>
+      </c>
+      <c r="I2">
+        <v>0.2331354772809149</v>
+      </c>
+      <c r="J2">
+        <v>0.2331354772809149</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
         <v>1</v>
       </c>
-      <c r="F2">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G2">
-        <v>0.06043066666666667</v>
-      </c>
-      <c r="H2">
-        <v>0.181292</v>
-      </c>
-      <c r="I2">
-        <v>0.03914407793923354</v>
-      </c>
-      <c r="J2">
-        <v>0.03914407793923354</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M2">
-        <v>0.033285</v>
+        <v>0.7144740000000001</v>
       </c>
       <c r="N2">
-        <v>0.099855</v>
+        <v>2.143422</v>
       </c>
       <c r="O2">
-        <v>0.007684499559038781</v>
+        <v>0.138796410342318</v>
       </c>
       <c r="P2">
-        <v>0.007684499559038781</v>
+        <v>0.138796410342318</v>
       </c>
       <c r="Q2">
-        <v>0.00201143474</v>
+        <v>0.521389306764</v>
       </c>
       <c r="R2">
-        <v>0.01810291266</v>
+        <v>4.692503760876</v>
       </c>
       <c r="S2">
-        <v>0.0003008026496630198</v>
+        <v>0.03235836737003403</v>
       </c>
       <c r="T2">
-        <v>0.0003008026496630198</v>
+        <v>0.03235836737003402</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.06043066666666667</v>
+        <v>0.7297526666666666</v>
       </c>
       <c r="H3">
-        <v>0.181292</v>
+        <v>2.189258</v>
       </c>
       <c r="I3">
-        <v>0.03914407793923354</v>
+        <v>0.2331354772809149</v>
       </c>
       <c r="J3">
-        <v>0.03914407793923354</v>
+        <v>0.2331354772809149</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +623,22 @@
         <v>12.422619</v>
       </c>
       <c r="O3">
-        <v>0.9560023056192156</v>
+        <v>0.8044215857867821</v>
       </c>
       <c r="P3">
-        <v>0.9560023056192157</v>
+        <v>0.8044215857867821</v>
       </c>
       <c r="Q3">
-        <v>0.250235715972</v>
+        <v>3.021813114078</v>
       </c>
       <c r="R3">
-        <v>2.252121443748</v>
+        <v>27.196318026702</v>
       </c>
       <c r="S3">
-        <v>0.03742182876124554</v>
+        <v>0.1875392103374719</v>
       </c>
       <c r="T3">
-        <v>0.03742182876124554</v>
+        <v>0.1875392103374719</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.06043066666666667</v>
+        <v>0.7297526666666666</v>
       </c>
       <c r="H4">
-        <v>0.181292</v>
+        <v>2.189258</v>
       </c>
       <c r="I4">
-        <v>0.03914407793923354</v>
+        <v>0.2331354772809149</v>
       </c>
       <c r="J4">
-        <v>0.03914407793923354</v>
+        <v>0.2331354772809149</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,42 +679,42 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1572886666666667</v>
+        <v>0.2847646666666667</v>
       </c>
       <c r="N4">
-        <v>0.471866</v>
+        <v>0.8542940000000001</v>
       </c>
       <c r="O4">
-        <v>0.03631319482174546</v>
+        <v>0.05531945672713084</v>
       </c>
       <c r="P4">
-        <v>0.03631319482174546</v>
+        <v>0.05531945672713083</v>
       </c>
       <c r="Q4">
-        <v>0.009505058985777777</v>
+        <v>0.2078077748724445</v>
       </c>
       <c r="R4">
-        <v>0.08554553087200001</v>
+        <v>1.870269973852</v>
       </c>
       <c r="S4">
-        <v>0.001421446528324976</v>
+        <v>0.01289692794700057</v>
       </c>
       <c r="T4">
-        <v>0.001421446528324976</v>
+        <v>0.01289692794700057</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -726,40 +729,40 @@
         <v>2.189258</v>
       </c>
       <c r="I5">
-        <v>0.4726986617230243</v>
+        <v>0.2331354772809149</v>
       </c>
       <c r="J5">
-        <v>0.4726986617230243</v>
+        <v>0.2331354772809149</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.033285</v>
+        <v>0.007528666666666667</v>
       </c>
       <c r="N5">
-        <v>0.099855</v>
+        <v>0.022586</v>
       </c>
       <c r="O5">
-        <v>0.007684499559038781</v>
+        <v>0.00146254714376898</v>
       </c>
       <c r="P5">
-        <v>0.007684499559038781</v>
+        <v>0.00146254714376898</v>
       </c>
       <c r="Q5">
-        <v>0.02428981751</v>
+        <v>0.005494064576444444</v>
       </c>
       <c r="R5">
-        <v>0.21860835759</v>
+        <v>0.049446581188</v>
       </c>
       <c r="S5">
-        <v>0.003632452657568802</v>
+        <v>0.0003409716264084201</v>
       </c>
       <c r="T5">
-        <v>0.003632452657568802</v>
+        <v>0.00034097162640842</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,31 +770,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.7297526666666666</v>
+        <v>2.400413</v>
       </c>
       <c r="H6">
-        <v>2.189258</v>
+        <v>7.201238999999999</v>
       </c>
       <c r="I6">
-        <v>0.4726986617230243</v>
+        <v>0.766864522719085</v>
       </c>
       <c r="J6">
-        <v>0.4726986617230243</v>
+        <v>0.766864522719085</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.140873</v>
+        <v>0.7144740000000001</v>
       </c>
       <c r="N6">
-        <v>12.422619</v>
+        <v>2.143422</v>
       </c>
       <c r="O6">
-        <v>0.9560023056192156</v>
+        <v>0.138796410342318</v>
       </c>
       <c r="P6">
-        <v>0.9560023056192157</v>
+        <v>0.138796410342318</v>
       </c>
       <c r="Q6">
-        <v>3.021813114078</v>
+        <v>1.715032677762</v>
       </c>
       <c r="R6">
-        <v>27.196318026702</v>
+        <v>15.435294099858</v>
       </c>
       <c r="S6">
-        <v>0.4519010104703289</v>
+        <v>0.106438042972284</v>
       </c>
       <c r="T6">
-        <v>0.4519010104703289</v>
+        <v>0.106438042972284</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,31 +832,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.7297526666666666</v>
+        <v>2.400413</v>
       </c>
       <c r="H7">
-        <v>2.189258</v>
+        <v>7.201238999999999</v>
       </c>
       <c r="I7">
-        <v>0.4726986617230243</v>
+        <v>0.766864522719085</v>
       </c>
       <c r="J7">
-        <v>0.4726986617230243</v>
+        <v>0.766864522719085</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,42 +865,42 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1572886666666667</v>
+        <v>4.140873</v>
       </c>
       <c r="N7">
-        <v>0.471866</v>
+        <v>12.422619</v>
       </c>
       <c r="O7">
-        <v>0.03631319482174546</v>
+        <v>0.8044215857867821</v>
       </c>
       <c r="P7">
-        <v>0.03631319482174546</v>
+        <v>0.8044215857867821</v>
       </c>
       <c r="Q7">
-        <v>0.1147818239364444</v>
+        <v>9.939805380549</v>
       </c>
       <c r="R7">
-        <v>1.033036415428</v>
+        <v>89.458248424941</v>
       </c>
       <c r="S7">
-        <v>0.01716519859512654</v>
+        <v>0.6168823754493101</v>
       </c>
       <c r="T7">
-        <v>0.01716519859512653</v>
+        <v>0.6168823754493101</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -906,60 +909,60 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.7536176666666666</v>
+        <v>2.400413</v>
       </c>
       <c r="H8">
-        <v>2.260853</v>
+        <v>7.201238999999999</v>
       </c>
       <c r="I8">
-        <v>0.4881572603377422</v>
+        <v>0.766864522719085</v>
       </c>
       <c r="J8">
-        <v>0.4881572603377422</v>
+        <v>0.766864522719085</v>
       </c>
       <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
         <v>1</v>
       </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M8">
-        <v>0.033285</v>
+        <v>0.2847646666666667</v>
       </c>
       <c r="N8">
-        <v>0.099855</v>
+        <v>0.8542940000000001</v>
       </c>
       <c r="O8">
-        <v>0.007684499559038781</v>
+        <v>0.05531945672713084</v>
       </c>
       <c r="P8">
-        <v>0.007684499559038781</v>
+        <v>0.05531945672713083</v>
       </c>
       <c r="Q8">
-        <v>0.025084164035</v>
+        <v>0.6835528078073334</v>
       </c>
       <c r="R8">
-        <v>0.225757476315</v>
+        <v>6.151975270266</v>
       </c>
       <c r="S8">
-        <v>0.003751244251806959</v>
+        <v>0.04242252878013027</v>
       </c>
       <c r="T8">
-        <v>0.003751244251806959</v>
+        <v>0.04242252878013026</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -968,108 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.7536176666666666</v>
+        <v>2.400413</v>
       </c>
       <c r="H9">
-        <v>2.260853</v>
+        <v>7.201238999999999</v>
       </c>
       <c r="I9">
-        <v>0.4881572603377422</v>
+        <v>0.766864522719085</v>
       </c>
       <c r="J9">
-        <v>0.4881572603377422</v>
+        <v>0.766864522719085</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>4.140873</v>
+        <v>0.007528666666666667</v>
       </c>
       <c r="N9">
-        <v>12.422619</v>
+        <v>0.022586</v>
       </c>
       <c r="O9">
-        <v>0.9560023056192156</v>
+        <v>0.00146254714376898</v>
       </c>
       <c r="P9">
-        <v>0.9560023056192157</v>
+        <v>0.00146254714376898</v>
       </c>
       <c r="Q9">
-        <v>3.120635048223</v>
+        <v>0.01807190933933333</v>
       </c>
       <c r="R9">
-        <v>28.085715434007</v>
+        <v>0.162647184054</v>
       </c>
       <c r="S9">
-        <v>0.4666794663876412</v>
+        <v>0.00112157551736056</v>
       </c>
       <c r="T9">
-        <v>0.4666794663876413</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.7536176666666666</v>
-      </c>
-      <c r="H10">
-        <v>2.260853</v>
-      </c>
-      <c r="I10">
-        <v>0.4881572603377422</v>
-      </c>
-      <c r="J10">
-        <v>0.4881572603377422</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.1572886666666667</v>
-      </c>
-      <c r="N10">
-        <v>0.471866</v>
-      </c>
-      <c r="O10">
-        <v>0.03631319482174546</v>
-      </c>
-      <c r="P10">
-        <v>0.03631319482174546</v>
-      </c>
-      <c r="Q10">
-        <v>0.1185355179664444</v>
-      </c>
-      <c r="R10">
-        <v>1.066819661698</v>
-      </c>
-      <c r="S10">
-        <v>0.01772654969829395</v>
-      </c>
-      <c r="T10">
-        <v>0.01772654969829395</v>
+        <v>0.00112157551736056</v>
       </c>
     </row>
   </sheetData>
